--- a/pred_ohlcv/54_21/2019-10-29 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>78375.56269317</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>104152.18299317</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>100221.18279317</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>101056.71699317</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>95909.27259317</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>98995.42229316999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>92426.90049316999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>88767.22269316998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>85560.45629316999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>81896.68769317</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>81896.68769317</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>81235.65649317</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>71476.96936883999</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>69820.46866883998</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>69239.28226883996</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>69239.28226883996</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>69279.28226883996</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>69888.62756883996</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>69888.62756883996</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>70578.20396883997</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>72665.16476883997</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>72665.16476883997</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>75513.30046883997</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>84580.10676883996</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>84590.10676883996</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>97337.45427833003</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>92316.66997833001</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>90760.35733082</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>91826.40283082001</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>94076.04513082</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>193754.68926079</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>202405.95736079</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>203405.99476079</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>203405.99476079</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>204972.01346079</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>205772.01346079</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>208231.22326079</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>206289.88136079</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>205748.29724236</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>205746.94953347</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>206989.71432458</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>205358.11842619</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>205278.11842619</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>204618.11842619</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>206981.13202619</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>206046.14932619</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>205797.19522619</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>205699.67892619</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>202634.46952619</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>209976.48793264</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>210721.62173264</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>209866.20083264</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>211190.90273264</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>211191.90273264</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>210587.4753326401</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>211308.02283264</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>211083.02283264</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>211507.52813264</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>211508.52813264</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>213661.96698519</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>213730.41878519</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>213730.41878519</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>213733.41878519</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>213528.95358519</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>211179.80698519</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>210666.31438519</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>210278.87238519</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>210608.66618519</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>210608.66618519</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>209717.49308519</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>210444.87818519</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>206498.38558519</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>206499.38558519</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>205935.33368519</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>208281.40048519</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>207859.81118519</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>207860.81118519</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>207861.81118519</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>207581.81118519</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>207582.81118519</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>206769.96868519</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>206770.96868519</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>206276.88268519</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>206336.88268519</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>205245.80628519</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>202112.07438519</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>192978.66548519</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>149506.3241851901</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>149506.3241851901</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>151847.4110851901</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>151847.4110851901</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>151842.9125851901</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>148556.7662851901</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>151231.8553851901</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>150056.4731851901</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>149258.6920851901</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>150442.6013851901</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>157767.6113851901</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>158798.9788851901</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>158450.9645851901</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>158450.4245851901</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>158333.9746851901</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>158734.3029851901</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>158734.3029851901</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>157680.1526851901</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>157670.1526851901</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>158907.4970851901</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>160246.8612851901</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>159774.8612851901</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>159775.8612851901</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>160214.4523851901</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>160214.4523851901</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>160214.4523851901</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>160214.4523851901</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>160214.4523851901</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>161592.8131851901</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>162119.8131851901</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>164215.5275851901</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>162997.4313851901</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>162625.3527851901</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>162626.3527851901</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>162405.5918851901</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>162405.5918851901</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>162195.5326851901</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>162195.5326851901</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>162123.8713851901</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>162123.8713851901</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>161927.9279851901</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>163666.4998851901</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>163667.4998851901</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>163666.0298851901</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>161127.3939851901</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>161499.8558851901</v>
       </c>
       <c r="H649">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>161169.3992851901</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>160373.4554851901</v>
       </c>
       <c r="H651">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>160460.8415851901</v>
       </c>
       <c r="H652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>160297.6253851901</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>158433.2443851901</v>
       </c>
       <c r="H654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>158433.2443851901</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>158434.2443851901</v>
       </c>
       <c r="H656">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>158434.2443851901</v>
       </c>
       <c r="H657">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>158253.9439851901</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>158151.9439851901</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>159643.4881851901</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>158880.0284851901</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>161501.6715851901</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>161755.0135851901</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>161673.9293851901</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>158740.0858851901</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>157290.7464851901</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>157290.7464851901</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>155667.6163851901</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>154116.3681851901</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>154116.3681851901</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>153935.3421851901</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>151734.5965851901</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>151827.0661851901</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>152015.4060851901</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>152202.7469851901</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>151162.7469851901</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>151220.3934851901</v>
       </c>
       <c r="H677">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>151058.4191851901</v>
       </c>
       <c r="H678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>151236.2131371701</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>151102.2131371701</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>151102.2131371701</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>151102.2131371701</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>151243.5486371701</v>
       </c>
       <c r="H683">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>151243.5486371701</v>
       </c>
       <c r="H684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>151243.5486371701</v>
       </c>
       <c r="H685">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>150740.5989371701</v>
       </c>
       <c r="H686">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>150829.0717371701</v>
       </c>
       <c r="H687">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>150582.4116371701</v>
       </c>
       <c r="H688">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>150648.9184371701</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>150649.9184371701</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>150835.7464371701</v>
       </c>
       <c r="H691">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>151418.0311371701</v>
       </c>
       <c r="H692">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>151418.0311371701</v>
       </c>
       <c r="H693">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>150885.9291371701</v>
       </c>
       <c r="H695">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>150737.9799371701</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>150737.9799371701</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>150738.9799371701</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>150597.9305371701</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>150610.1274371701</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>150557.7605371701</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>150556.3892371701</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>150652.8930371701</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>150638.3984371701</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>150620.6890371701</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>149973.6395371701</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>151652.5421371701</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>151684.5421371701</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>151716.5421371701</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>151617.5555371701</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>151737.5555371701</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>151639.0572371701</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>151334.4738371701</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>151335.4738371701</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>151680.4738371701</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>151680.4738371701</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>151317.0628371701</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>151683.7615371701</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>151514.0314371701</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>149348.4855371701</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>150253.9209371701</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>149877.2318371701</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>149878.2318371701</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>149878.2318371701</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>149878.2318371701</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>149204.9413371701</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>149204.9413371701</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>148395.4649371701</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>148245.4649371701</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>149239.6976371701</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>148461.6936371701</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>148462.6936371701</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>148351.9677371701</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>78375.56269317</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>104152.18299317</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>100221.18279317</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>101056.71699317</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>95909.27259317</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>98995.42229316999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>92426.90049316999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>88767.22269316998</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>85560.45629316999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>81896.68769317</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>81896.68769317</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>81235.65649317</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>71476.96936883999</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>69820.46866883998</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>69239.28226883996</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>69239.28226883996</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>69279.28226883996</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>69888.62756883996</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>69888.62756883996</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>70578.20396883997</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>72665.16476883997</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>72665.16476883997</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>75513.30046883997</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>84580.10676883996</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>84590.10676883996</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>114130.68326884</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>130386.43266884</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>126227.21856884</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>126588.88266884</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>97085.86524235002</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>92316.66997833001</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>92174.63993082001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>91826.40283082001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>145739.70318636</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>194020.47426079</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>193754.68926079</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>202541.99826079</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>202405.95736079</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>203405.99476079</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>203405.99476079</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>204972.01346079</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>205772.01346079</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>209230.15406079</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>208231.22326079</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>206289.88136079</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>205748.29724236</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>205746.94953347</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>206989.71432458</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>205358.11842619</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>205278.11842619</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>204618.11842619</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>206981.13202619</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
